--- a/assembly.xlsx
+++ b/assembly.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Comparison of time efficiency</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Test 5</t>
   </si>
   <si>
+    <t>Test 6</t>
+  </si>
+  <si>
     <t>solve_1</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>solve_3</t>
+  </si>
+  <si>
+    <t>Timeout at 10 mins</t>
   </si>
   <si>
     <t>solve_4</t>
@@ -232,7 +238,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -272,6 +278,9 @@
     <xf numFmtId="59" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,14 +313,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28731</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>227866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>35877</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>181332</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1280477</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127357</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -320,7 +329,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-14606" y="3903672"/>
+          <a:off x="-16828" y="8331009"/>
           <a:ext cx="7505701" cy="1165043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -639,13 +648,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>162954</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1216609</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35877</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>2203155</xdr:rowOff>
+      <xdr:rowOff>2390721</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -654,8 +663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-16828" y="162954"/>
-          <a:ext cx="4952633" cy="2040202"/>
+          <a:off x="-16828" y="-155917"/>
+          <a:ext cx="7669411" cy="2390723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -673,7 +682,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1241,7 +1250,111 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>Test 5 - no solution</a:t>
+            <a:t>Test 5 - non-trivial solution, multiple tetris pieces , multiple rotations required, solve_3 timed out after 10 mins</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Test 6 - no solution</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1252,14 +1365,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>137779</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>35877</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133540</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1280477</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>102200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1268,7 +1381,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-16828" y="5278271"/>
+          <a:off x="-16828" y="9728243"/>
           <a:ext cx="7505701" cy="1514423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1560,6 +1673,5922 @@
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>However, we can see some deviations from this statement especially when it comes to solving trivial or no solution problems.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2279943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>900506</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4320145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-16828" y="2279943"/>
+          <a:ext cx="902730" cy="2040203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Test 1:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Initial state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Goal state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1144587</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2188503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>802716</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>436485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Shape 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1146809" y="2188503"/>
+          <a:ext cx="902730" cy="3442283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Test 2:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Initial state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>2 3 2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 2 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 2 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Goal state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 2 3 2 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 2 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 1 2 0 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1193615</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2188503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>851744</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>436485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Shape 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2440438" y="2188503"/>
+          <a:ext cx="902730" cy="3442283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Test 3:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Initial state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>2 3 2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 2 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 2 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Goal state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 2 3 2 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 2 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 1 2 0 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1242644</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2188503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>900773</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>436485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Shape 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3734066" y="2188503"/>
+          <a:ext cx="902730" cy="3442283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Test 4:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Initial state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>2 2 3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Goal state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 2 3 2 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 2 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 1 2 0 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081792</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2279943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>739921</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4320145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Shape 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6062415" y="2279943"/>
+          <a:ext cx="902729" cy="2040203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Test 6:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Initial state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Goal state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1161681</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2119923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819810</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91945</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Shape 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4897704" y="2119923"/>
+          <a:ext cx="902729" cy="4493843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Test 5:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Initial state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Goal state:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1 0 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1 1 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1 0 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>0 0 1 0 0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1 1 1 0 0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2625,10 +8654,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:F7"/>
+  <dimension ref="A4:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B4" xSplit="1" ySplit="3" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B5" xSplit="1" ySplit="4" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2638,77 +8667,66 @@
     <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4922" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="180.55" customHeight="1"/>
-    <row r="2" ht="27.65" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="1" ht="409" customHeight="1"/>
+    <row r="2" ht="104.5" customHeight="1"/>
+    <row r="3" ht="27.65" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s" s="4">
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C4" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D4" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E4" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F4" t="s" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="21.2" customHeight="1">
-      <c r="A4" t="s" s="5">
+      <c r="G4" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+    </row>
+    <row r="5" ht="21.2" customHeight="1">
+      <c r="A5" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
         <v>5.404949188232422e-05</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="7">
         <v>0.03461160659790039</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D5" s="8">
         <v>0.03429114818572998</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E5" s="8">
         <v>0.03410394191741943</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5" s="8">
+        <v>0.004687762260437012</v>
+      </c>
+      <c r="G5" s="8">
         <v>6.854534149169922e-05</v>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10">
-        <v>4.611015319824219e-05</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.00990312099456787</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.003367781639099121</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.004149436950683594</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4.961490631103515e-05</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1">
@@ -2716,19 +8734,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="10">
-        <v>4.553794860839844e-05</v>
+        <v>4.611015319824219e-05</v>
       </c>
       <c r="C6" s="11">
-        <v>0.3192138910293579</v>
+        <v>0.00990312099456787</v>
       </c>
-      <c r="D6" s="11">
-        <v>1.48191978931427</v>
+      <c r="D6" s="12">
+        <v>0.003367781639099121</v>
       </c>
-      <c r="E6" s="11">
-        <v>54.53873171806335</v>
+      <c r="E6" s="12">
+        <v>0.004149436950683594</v>
       </c>
       <c r="F6" s="12">
-        <v>0.0002969741821289062</v>
+        <v>0.01721711158752441</v>
+      </c>
+      <c r="G6" s="12">
+        <v>4.961490631103515e-05</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1">
@@ -2736,24 +8757,50 @@
         <v>9</v>
       </c>
       <c r="B7" s="10">
+        <v>4.553794860839844e-05</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.3192138910293579</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.48191978931427</v>
+      </c>
+      <c r="E7" s="11">
+        <v>54.53873171806335</v>
+      </c>
+      <c r="F7" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.0002969741821289062</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10">
         <v>4.403591156005859e-05</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C8" s="11">
         <v>0.02161383628845215</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>0.182518744468689</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>1.318129396438599</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="11">
+        <v>6.511341238021851</v>
+      </c>
+      <c r="G8" s="12">
         <v>0.0009859085083007812</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
